--- a/data/pole_prot.xlsx
+++ b/data/pole_prot.xlsx
@@ -986,9 +986,6 @@
     <t>Задание 6</t>
   </si>
   <si>
-    <t>Е1=10 В, Uз=20 В, I=3.3 мА, Uист=5.6 мВ, f=120 кГц</t>
-  </si>
-  <si>
     <t>E2, B</t>
   </si>
   <si>
@@ -1020,6 +1017,9 @@
   </si>
   <si>
     <t>Е1=10 В, Uз=0.8 В, I=5 мА, Uист=200мВ</t>
+  </si>
+  <si>
+    <t>Е1=10 В, E2=20 В, I=3.3 мА, Uист=5.6 мВ, f=120 кГц</t>
   </si>
 </sst>
 </file>
@@ -1441,8 +1441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2115,7 +2115,7 @@
         <v>171</v>
       </c>
       <c r="Z14" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AA14" s="2" t="s">
         <v>172</v>
@@ -2721,7 +2721,7 @@
         <v>230</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="V23" s="2" t="s">
         <v>231</v>
@@ -2895,7 +2895,7 @@
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.25">
@@ -3059,12 +3059,12 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>11</v>
@@ -3079,25 +3079,25 @@
         <v>200</v>
       </c>
       <c r="F37" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="H37" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="I37" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="J37" s="3" t="s">
         <v>328</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>329</v>
       </c>
       <c r="K37" s="10"/>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>85</v>
@@ -3130,7 +3130,7 @@
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>19</v>

--- a/data/pole_prot.xlsx
+++ b/data/pole_prot.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="332">
   <si>
     <t>Задание 1</t>
   </si>
@@ -966,9 +966,6 @@
   </si>
   <si>
     <t>4000000</t>
-  </si>
-  <si>
-    <t>0.95</t>
   </si>
   <si>
     <t>10.18</t>
@@ -1441,8 +1438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2115,7 +2112,7 @@
         <v>171</v>
       </c>
       <c r="Z14" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AA14" s="2" t="s">
         <v>172</v>
@@ -2721,7 +2718,7 @@
         <v>230</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="V23" s="2" t="s">
         <v>231</v>
@@ -2895,7 +2892,7 @@
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.25">
@@ -2906,16 +2903,16 @@
         <v>194</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>318</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>319</v>
       </c>
       <c r="G32" s="2">
         <v>30</v>
@@ -2992,7 +2989,7 @@
         <v>129</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>39</v>
@@ -3019,7 +3016,7 @@
         <v>43</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P33" s="2" t="s">
         <v>39</v>
@@ -3034,10 +3031,10 @@
         <v>34</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="U33" s="2" t="s">
-        <v>315</v>
+        <v>180</v>
       </c>
       <c r="V33" s="2" t="s">
         <v>32</v>
@@ -3054,17 +3051,17 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>11</v>
@@ -3079,31 +3076,31 @@
         <v>200</v>
       </c>
       <c r="F37" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="H37" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="I37" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="J37" s="3" t="s">
         <v>327</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>328</v>
       </c>
       <c r="K37" s="10"/>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>87</v>
@@ -3130,7 +3127,7 @@
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>19</v>
@@ -3148,7 +3145,7 @@
         <v>22</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>76</v>
